--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92970.76274370946</v>
+        <v>90532.28964396314</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.7666956317722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>308.8656922317974</v>
+        <v>7.660466962113787</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>137.587703159601</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>28.46932083023322</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>87.62154955555337</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.1429131767408</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>29.71145624902234</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>125.066309602571</v>
+        <v>150.3013276789176</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>86.49882815414954</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>218.5174356271575</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.929836120345</v>
       </c>
       <c r="W10" t="n">
-        <v>221.5498791327072</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>35.41770597126747</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819351</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.06560892428438</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229254</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.10998325717757</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.1884230276014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428303</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>122.4116053749676</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,13 +2795,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.2435806730866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>172.3645574474256</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>182.3203821379245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1460.116231627718</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1091.153714687306</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D2" t="n">
-        <v>1091.153714687306</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E2" t="n">
-        <v>1091.153714687306</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>545.0700935229384</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669912</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4510,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>832.3803901055048</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V4" t="n">
-        <v>384.6861761966524</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.26900615969174</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943748</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E5" t="n">
-        <v>922.582043345504</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>511.5961385558964</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>96.52368840089287</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>96.52368840089287</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4629,13 +4629,13 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064548</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4756,19 +4756,19 @@
         <v>507.4345062145375</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145375</v>
+        <v>218.331639340181</v>
       </c>
       <c r="V7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3238.233267918111</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3032.255520302333</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122982</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="W10" t="n">
-        <v>442.4147609125939</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="X10" t="n">
-        <v>214.4252100145765</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5030,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400739</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121671</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121671</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>117.1600804794644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5510,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5607,13 +5607,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.7311804011399</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239597</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239597</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2323.31499734292</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2103.713532365861</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1814.638305710059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1559.953817504172</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1270.536647467212</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>821.7545174256642</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
         <v>1140.291933891999</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6315,13 +6315,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433612</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>98.010353509914</v>
+        <v>399.2155787795976</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>116.951727192698</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>145.6085800303771</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>63.36835372228479</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890463</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.6435571543359</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856421</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864822</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671011978</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.61468062667703</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.58839950885067</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>989091.8491444922</v>
+        <v>989091.8491444924</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406861</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
@@ -26323,37 +26323,37 @@
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="G2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682529</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="K2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682525</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682529</v>
-      </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.004758082241414e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138713</v>
+        <v>51041.86039138718</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
@@ -26427,34 +26427,34 @@
         <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>15436.6400068796</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687971</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1170464.670539687</v>
+        <v>-1170651.063928226</v>
       </c>
       <c r="C6" t="n">
-        <v>147412.0675268748</v>
+        <v>147412.0675268747</v>
       </c>
       <c r="D6" t="n">
-        <v>147412.0675268745</v>
+        <v>147412.0675268746</v>
       </c>
       <c r="E6" t="n">
-        <v>-98934.32676988923</v>
+        <v>-98969.06469532481</v>
       </c>
       <c r="F6" t="n">
-        <v>226478.135037466</v>
+        <v>226443.3971120303</v>
       </c>
       <c r="G6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120304</v>
       </c>
       <c r="H6" t="n">
-        <v>226478.1350374661</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="I6" t="n">
-        <v>226478.1350374661</v>
+        <v>226443.3971120304</v>
       </c>
       <c r="J6" t="n">
-        <v>8946.932640188475</v>
+        <v>8912.194714752957</v>
       </c>
       <c r="K6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120304</v>
       </c>
       <c r="L6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120304</v>
       </c>
       <c r="M6" t="n">
-        <v>141423.1071019541</v>
+        <v>141388.3691765183</v>
       </c>
       <c r="N6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120303</v>
       </c>
       <c r="O6" t="n">
-        <v>226478.1350374661</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="P6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120302</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26799,22 +26799,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.9671460317084</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>273.3340224938524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>102.1474757758885</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.787456895521</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>11.86547352390361</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>127.071333721257</v>
+        <v>101.8363156449104</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>22.6889336340263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>32.47773633174452</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.20780720348296</v>
       </c>
       <c r="W10" t="n">
-        <v>64.97311920388384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5.846946800072464e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>386.7287743289959</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,16 +33977,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>382.1329742631541</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>351.6082511035024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>244.1325298845514</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066261</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790108</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>556.7168329578466</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>248.1585668488238</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>217.6338436891722</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
